--- a/biology/Botanique/Rosier_Malicorne/Rosier_Malicorne.xlsx
+++ b/biology/Botanique/Rosier_Malicorne/Rosier_Malicorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un rosier Malicorne est un rosier créé par Georges Delbard en hommage à Malicorne, son village natal et le berceau des pépinières Delbard[réf. nécessaire].
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier floribunda au port compact et fort résistant. Sa fleur est une rose à la teinte pourpre chocolatée profonde et veloutée. Légèrement parfumée, de petite taille (5 à 7 cm de diamètre), elle peut être utilisée pour la confection de bouquets de fleurs [1]. Bien que ce rosier ait été retiré de son catalogue par la société Delbard du fait de ventes insuffisantes après sa commercialisation en 2006, on peut le retrouver occasionnellement chez quelques rosiéristes [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier floribunda au port compact et fort résistant. Sa fleur est une rose à la teinte pourpre chocolatée profonde et veloutée. Légèrement parfumée, de petite taille (5 à 7 cm de diamètre), elle peut être utilisée pour la confection de bouquets de fleurs . Bien que ce rosier ait été retiré de son catalogue par la société Delbard du fait de ventes insuffisantes après sa commercialisation en 2006, on peut le retrouver occasionnellement chez quelques rosiéristes .
 </t>
         </is>
       </c>
